--- a/user_interface/static/dummy_data/profile_table.xlsx
+++ b/user_interface/static/dummy_data/profile_table.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F457A1E-9236-40A1-BFDB-079F1F5EE02A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C05885-25BF-4F38-82EB-4EE19B43750D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="1750" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="5540" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>alias</t>
   </si>
@@ -112,9 +112,6 @@
     <t>mike</t>
   </si>
   <si>
-    <t>mike@gmail.com</t>
-  </si>
-  <si>
     <t>Michael</t>
   </si>
   <si>
@@ -203,6 +200,12 @@
   </si>
   <si>
     <t>Dreamteam Programmer who is acting as a test user for this dummy data.</t>
+  </si>
+  <si>
+    <t>XJWoEcF4qsToA0NHnKnaIlqBnfO2</t>
+  </si>
+  <si>
+    <t>mike.capstonetest@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -591,12 +594,13 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29" thickBot="1">
@@ -734,45 +738,45 @@
       <c r="B5" s="4">
         <v>95</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="8">
         <v>864446400000</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="4">
-        <v>88</v>
+      <c r="H5" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="39" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4">
         <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F6" s="8">
         <v>852094800000</v>
@@ -782,28 +786,28 @@
         <v>666</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="39" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4">
         <v>78</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F7" s="8">
         <v>315550800000</v>
@@ -813,28 +817,28 @@
         <v>77</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="26.5" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4">
         <v>77</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="8">
         <v>852094800000</v>
@@ -848,24 +852,24 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="26.5" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="4">
         <v>52</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="F9" s="8">
         <v>852094800000</v>
@@ -879,24 +883,24 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="26.5" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4">
         <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="F10" s="8">
         <v>852094800000</v>
@@ -910,7 +914,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
